--- a/data/MS_text_XRF_hydr.xlsx
+++ b/data/MS_text_XRF_hydr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/gaston_mendozaveirana_ugent_be/Documents/Documentos/PhD/Magnetics/Magnetism_code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="809" documentId="13_ncr:1_{8ABC0D2B-C8E5-44D1-926B-ADB09F951735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D926536-921D-4460-9E44-16C782E07061}"/>
+  <xr:revisionPtr revIDLastSave="812" documentId="13_ncr:1_{8ABC0D2B-C8E5-44D1-926B-ADB09F951735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86821AD0-1465-4896-83FD-2A19F5C036BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="402">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1223,9 +1223,6 @@
     <t>Xfd_abs</t>
   </si>
   <si>
-    <t>field volumetric water content (%)</t>
-  </si>
-  <si>
     <t>field_realperm</t>
   </si>
   <si>
@@ -1236,6 +1233,12 @@
   </si>
   <si>
     <t>MS_field</t>
+  </si>
+  <si>
+    <t>EC1_5</t>
+  </si>
+  <si>
+    <t>field_vwc</t>
   </si>
 </sst>
 </file>
@@ -1748,41 +1751,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EK192"/>
+  <dimension ref="A1:EL192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EH2" sqref="EH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" customWidth="1"/>
-    <col min="11" max="18" width="9.109375" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="117" width="9.109375" customWidth="1"/>
-    <col min="122" max="122" width="14.33203125" customWidth="1"/>
-    <col min="123" max="123" width="10.88671875" customWidth="1"/>
-    <col min="124" max="124" width="10.44140625" customWidth="1"/>
-    <col min="125" max="125" width="10.5546875" customWidth="1"/>
-    <col min="126" max="127" width="10.44140625" customWidth="1"/>
-    <col min="129" max="129" width="10.109375" customWidth="1"/>
+    <col min="22" max="117" width="9.140625" customWidth="1"/>
+    <col min="122" max="122" width="14.28515625" customWidth="1"/>
+    <col min="123" max="123" width="10.85546875" customWidth="1"/>
+    <col min="124" max="124" width="10.42578125" customWidth="1"/>
+    <col min="125" max="125" width="10.5703125" customWidth="1"/>
+    <col min="126" max="127" width="10.42578125" customWidth="1"/>
+    <col min="129" max="129" width="10.140625" customWidth="1"/>
     <col min="130" max="130" width="11" customWidth="1"/>
-    <col min="131" max="131" width="10.88671875" customWidth="1"/>
-    <col min="132" max="132" width="10.44140625" customWidth="1"/>
-    <col min="134" max="134" width="9.6640625" customWidth="1"/>
-    <col min="135" max="136" width="10.44140625" customWidth="1"/>
-    <col min="137" max="140" width="9.109375" customWidth="1"/>
+    <col min="131" max="131" width="10.85546875" customWidth="1"/>
+    <col min="132" max="132" width="10.42578125" customWidth="1"/>
+    <col min="134" max="134" width="9.7109375" customWidth="1"/>
+    <col min="135" max="136" width="10.42578125" customWidth="1"/>
+    <col min="137" max="140" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>386</v>
@@ -2195,19 +2198,22 @@
         <v>282</v>
       </c>
       <c r="EH1" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="EI1" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="EI1" s="26" t="s">
+      <c r="EJ1" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="EJ1" s="26" t="s">
+      <c r="EK1" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="EK1" s="26" t="s">
-        <v>399</v>
+      <c r="EL1" s="11" t="s">
+        <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>108</v>
       </c>
@@ -2633,8 +2639,11 @@
       <c r="EK2" s="27">
         <v>19.7</v>
       </c>
+      <c r="EL2">
+        <v>1.6980000000000002E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -2709,7 +2718,7 @@
         <v>8.1865284974093289</v>
       </c>
       <c r="X3" s="5">
-        <f t="shared" ref="W3:X66" si="3">(T3-U3)</f>
+        <f t="shared" ref="X3:X56" si="3">(T3-U3)</f>
         <v>1.0979847116052826E-6</v>
       </c>
       <c r="Y3" s="5">
@@ -3060,8 +3069,11 @@
       <c r="EK3" s="27">
         <v>19.899999999999999</v>
       </c>
+      <c r="EL3">
+        <v>1.4730000000000002E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>115</v>
       </c>
@@ -3124,7 +3136,7 @@
         <v>6.5844594594594593E-6</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" ref="T4:U67" si="4">O4/L4</f>
+        <f t="shared" ref="U4:U56" si="4">O4/L4</f>
         <v>6.2682432432432423E-6</v>
       </c>
       <c r="V4" s="5">
@@ -3487,8 +3499,11 @@
       <c r="EK4" s="27">
         <v>16.3</v>
       </c>
+      <c r="EL4">
+        <v>1.4700000000000001E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>118</v>
       </c>
@@ -3914,8 +3929,11 @@
       <c r="EK5" s="27">
         <v>19.3</v>
       </c>
+      <c r="EL5">
+        <v>1.4419999999999999E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -4341,8 +4359,11 @@
       <c r="EK6" s="27">
         <v>16.5</v>
       </c>
+      <c r="EL6">
+        <v>1.5440000000000001E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
@@ -4768,8 +4789,11 @@
       <c r="EK7" s="27">
         <v>18.2</v>
       </c>
+      <c r="EL7">
+        <v>1.3090000000000001E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>127</v>
       </c>
@@ -5195,8 +5219,11 @@
       <c r="EK8" s="27">
         <v>17.2</v>
       </c>
+      <c r="EL8">
+        <v>1.507E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>130</v>
       </c>
@@ -5622,8 +5649,11 @@
       <c r="EK9" s="27">
         <v>17.5</v>
       </c>
+      <c r="EL9">
+        <v>1.2750000000000001E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
@@ -6049,8 +6079,11 @@
       <c r="EK10" s="27">
         <v>17</v>
       </c>
+      <c r="EL10">
+        <v>1.4450000000000001E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>136</v>
       </c>
@@ -6476,8 +6509,11 @@
       <c r="EK11" s="27">
         <v>17.3</v>
       </c>
+      <c r="EL11">
+        <v>0.11410000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
@@ -6903,8 +6939,11 @@
       <c r="EK12" s="27">
         <v>17.5</v>
       </c>
+      <c r="EL12">
+        <v>0.14899999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>142</v>
       </c>
@@ -7330,8 +7369,11 @@
       <c r="EK13" s="28">
         <v>17.7</v>
       </c>
+      <c r="EL13">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="14" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>145</v>
       </c>
@@ -7757,8 +7799,11 @@
       <c r="EK14" s="29">
         <v>24.4</v>
       </c>
+      <c r="EL14">
+        <v>7.8100000000000001E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>148</v>
       </c>
@@ -8184,8 +8229,11 @@
       <c r="EK15" s="30">
         <v>22.4</v>
       </c>
+      <c r="EL15">
+        <v>7.6300000000000005E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
@@ -8611,8 +8659,11 @@
       <c r="EK16" s="27">
         <v>19.100000000000001</v>
       </c>
+      <c r="EL16">
+        <v>7.0800000000000004E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>154</v>
       </c>
@@ -9038,8 +9089,11 @@
       <c r="EK17" s="27">
         <v>19.100000000000001</v>
       </c>
+      <c r="EL17">
+        <v>7.6E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>157</v>
       </c>
@@ -9465,8 +9519,11 @@
       <c r="EK18" s="29">
         <v>19.3</v>
       </c>
+      <c r="EL18">
+        <v>7.7099999999999998E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
@@ -9892,8 +9949,11 @@
       <c r="EK19" s="29">
         <v>20.3</v>
       </c>
+      <c r="EL19">
+        <v>4.13E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>163</v>
       </c>
@@ -10319,8 +10379,11 @@
       <c r="EK20" s="29">
         <v>19.7</v>
       </c>
+      <c r="EL20">
+        <v>2.2399999999999998E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>166</v>
       </c>
@@ -10746,8 +10809,11 @@
       <c r="EK21" s="30">
         <v>20.5</v>
       </c>
+      <c r="EL21">
+        <v>2.1100000000000003E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:141" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:142" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>170</v>
       </c>
@@ -11173,8 +11239,11 @@
       <c r="EK22" s="30">
         <v>19.7</v>
       </c>
+      <c r="EL22">
+        <v>2.6000000000000003E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>173</v>
       </c>
@@ -11600,8 +11669,11 @@
       <c r="EK23" s="30">
         <v>19.7</v>
       </c>
+      <c r="EL23">
+        <v>2.8700000000000002E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>176</v>
       </c>
@@ -12027,8 +12099,11 @@
       <c r="EK24" s="29">
         <v>20.3</v>
       </c>
+      <c r="EL24">
+        <v>1.9300000000000001E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>381</v>
       </c>
@@ -12457,8 +12532,11 @@
       <c r="EK25" s="29">
         <v>25.4</v>
       </c>
+      <c r="EL25">
+        <v>8.8800000000000007E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>382</v>
       </c>
@@ -12887,8 +12965,11 @@
       <c r="EK26" s="29">
         <v>24.2</v>
       </c>
+      <c r="EL26">
+        <v>6.7499999999999999E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>383</v>
       </c>
@@ -13317,8 +13398,11 @@
       <c r="EK27" s="29">
         <v>23.32</v>
       </c>
+      <c r="EL27">
+        <v>4.0299999999999997E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>384</v>
       </c>
@@ -13747,8 +13831,11 @@
       <c r="EK28" s="30">
         <v>22.8</v>
       </c>
+      <c r="EL28">
+        <v>5.8799999999999998E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>385</v>
       </c>
@@ -14177,8 +14264,11 @@
       <c r="EK29" s="29">
         <v>23</v>
       </c>
+      <c r="EL29">
+        <v>4.6500000000000005E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>194</v>
       </c>
@@ -14607,8 +14697,11 @@
       <c r="EK30" s="28">
         <v>8.1999999999999993</v>
       </c>
+      <c r="EL30">
+        <v>1.6899999999999999E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>197</v>
       </c>
@@ -15037,8 +15130,11 @@
       <c r="EK31" s="28">
         <v>8.1</v>
       </c>
+      <c r="EL31">
+        <v>1.3500000000000001E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>200</v>
       </c>
@@ -15467,8 +15563,11 @@
       <c r="EK32" s="28">
         <v>8.8000000000000007</v>
       </c>
+      <c r="EL32">
+        <v>1.01E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>203</v>
       </c>
@@ -15897,8 +15996,11 @@
       <c r="EK33" s="28">
         <v>9.1</v>
       </c>
+      <c r="EL33">
+        <v>2.6199999999999999E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>206</v>
       </c>
@@ -16327,8 +16429,11 @@
       <c r="EK34" s="28">
         <v>9.1999999999999993</v>
       </c>
+      <c r="EL34">
+        <v>9.0000000000000008E-4</v>
+      </c>
     </row>
-    <row r="35" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>209</v>
       </c>
@@ -16757,8 +16862,11 @@
       <c r="EK35" s="28">
         <v>10.7</v>
       </c>
+      <c r="EL35">
+        <v>8.5900000000000006E-4</v>
+      </c>
     </row>
-    <row r="36" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>376</v>
       </c>
@@ -17187,8 +17295,11 @@
       <c r="EK36" s="29">
         <v>30.7</v>
       </c>
+      <c r="EL36">
+        <v>1.8419999999999999E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>377</v>
       </c>
@@ -17617,8 +17728,11 @@
       <c r="EK37" s="30">
         <v>28.9</v>
       </c>
+      <c r="EL37">
+        <v>3.9900000000000005E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>378</v>
       </c>
@@ -18047,8 +18161,11 @@
       <c r="EK38" s="29">
         <v>27.8</v>
       </c>
+      <c r="EL38">
+        <v>1.8010000000000002E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>379</v>
       </c>
@@ -18477,8 +18594,11 @@
       <c r="EK39" s="29">
         <v>26.7</v>
       </c>
+      <c r="EL39">
+        <v>1.779E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>380</v>
       </c>
@@ -18907,8 +19027,11 @@
       <c r="EK40" s="29">
         <v>25.9</v>
       </c>
+      <c r="EL40">
+        <v>1.7330000000000002E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>358</v>
       </c>
@@ -19337,8 +19460,11 @@
       <c r="EK41" s="29">
         <v>11.3</v>
       </c>
+      <c r="EL41">
+        <v>1.302E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>359</v>
       </c>
@@ -19767,8 +19893,11 @@
       <c r="EK42" s="30">
         <v>12.4</v>
       </c>
+      <c r="EL42">
+        <v>1.477E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>360</v>
       </c>
@@ -20197,8 +20326,11 @@
       <c r="EK43" s="29">
         <v>12.7</v>
       </c>
+      <c r="EL43">
+        <v>1.2330000000000001E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>361</v>
       </c>
@@ -20627,8 +20759,11 @@
       <c r="EK44" s="32">
         <v>13.1</v>
       </c>
+      <c r="EL44">
+        <v>1.0529999999999999E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>362</v>
       </c>
@@ -21057,8 +21192,11 @@
       <c r="EK45" s="29">
         <v>13</v>
       </c>
+      <c r="EL45">
+        <v>7.1400000000000005E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>232</v>
       </c>
@@ -21487,8 +21625,11 @@
       <c r="EK46" s="29">
         <v>22.8</v>
       </c>
+      <c r="EL46">
+        <v>6.3899999999999998E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>235</v>
       </c>
@@ -21917,8 +22058,11 @@
       <c r="EK47" s="30">
         <v>21.9</v>
       </c>
+      <c r="EL47">
+        <v>4.1400000000000005E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>238</v>
       </c>
@@ -22347,8 +22491,11 @@
       <c r="EK48" s="29">
         <v>21.7</v>
       </c>
+      <c r="EL48">
+        <v>3.6600000000000005E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>241</v>
       </c>
@@ -22777,8 +22924,11 @@
       <c r="EK49" s="29">
         <v>21.5</v>
       </c>
+      <c r="EL49">
+        <v>3.2500000000000003E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>244</v>
       </c>
@@ -23207,8 +23357,11 @@
       <c r="EK50" s="29">
         <v>21.5</v>
       </c>
+      <c r="EL50">
+        <v>2.9199999999999999E-3</v>
+      </c>
     </row>
-    <row r="51" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>247</v>
       </c>
@@ -23637,8 +23790,11 @@
       <c r="EK51" s="34">
         <v>21.7</v>
       </c>
+      <c r="EL51">
+        <v>2.8600000000000001E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>250</v>
       </c>
@@ -24067,8 +24223,11 @@
       <c r="EK52" s="34">
         <v>22.6</v>
       </c>
+      <c r="EL52">
+        <v>2.7100000000000002E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>253</v>
       </c>
@@ -24497,8 +24656,11 @@
       <c r="EK53" s="29">
         <v>31.1</v>
       </c>
+      <c r="EL53">
+        <v>6.1100000000000008E-3</v>
+      </c>
     </row>
-    <row r="54" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>256</v>
       </c>
@@ -24927,8 +25089,11 @@
       <c r="EK54" s="29">
         <v>29.6</v>
       </c>
+      <c r="EL54">
+        <v>9.2099999999999994E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>259</v>
       </c>
@@ -25357,8 +25522,11 @@
       <c r="EK55" s="29">
         <v>28.6</v>
       </c>
+      <c r="EL55">
+        <v>8.7500000000000008E-3</v>
+      </c>
     </row>
-    <row r="56" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>262</v>
       </c>
@@ -25787,8 +25955,11 @@
       <c r="EK56" s="30">
         <v>25.4</v>
       </c>
+      <c r="EL56">
+        <v>8.4600000000000005E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:141" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:142" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>265</v>
       </c>
@@ -26217,8 +26388,11 @@
       <c r="EK57" s="29">
         <v>24.2</v>
       </c>
+      <c r="EL57">
+        <v>1.3100000000000001E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:142" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>363</v>
       </c>
@@ -26301,7 +26475,7 @@
       <c r="EJ58"/>
       <c r="EK58" s="29"/>
     </row>
-    <row r="59" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:142" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>364</v>
       </c>
@@ -26384,7 +26558,7 @@
       <c r="EJ59"/>
       <c r="EK59"/>
     </row>
-    <row r="60" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:142" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>365</v>
       </c>
@@ -26467,7 +26641,7 @@
       <c r="EJ60"/>
       <c r="EK60"/>
     </row>
-    <row r="61" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:142" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>366</v>
       </c>
@@ -26550,7 +26724,7 @@
       <c r="EJ61"/>
       <c r="EK61"/>
     </row>
-    <row r="62" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:142" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>367</v>
       </c>
@@ -26633,7 +26807,7 @@
       <c r="EJ62"/>
       <c r="EK62"/>
     </row>
-    <row r="63" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:142" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>368</v>
       </c>
@@ -26716,7 +26890,7 @@
       <c r="EJ63"/>
       <c r="EK63"/>
     </row>
-    <row r="64" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:142" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>369</v>
       </c>
@@ -26796,7 +26970,7 @@
       <c r="EJ64"/>
       <c r="EK64"/>
     </row>
-    <row r="65" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>370</v>
       </c>
@@ -26876,7 +27050,7 @@
       <c r="EJ65"/>
       <c r="EK65"/>
     </row>
-    <row r="66" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>371</v>
       </c>
@@ -26956,7 +27130,7 @@
       <c r="EJ66"/>
       <c r="EK66"/>
     </row>
-    <row r="67" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>372</v>
       </c>
@@ -27036,7 +27210,7 @@
       <c r="EJ67"/>
       <c r="EK67"/>
     </row>
-    <row r="68" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>373</v>
       </c>
@@ -27119,7 +27293,7 @@
       <c r="EJ68"/>
       <c r="EK68"/>
     </row>
-    <row r="69" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>374</v>
       </c>
@@ -27202,7 +27376,7 @@
       <c r="EJ69"/>
       <c r="EK69"/>
     </row>
-    <row r="70" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>375</v>
       </c>
@@ -27285,7 +27459,7 @@
       <c r="EJ70"/>
       <c r="EK70"/>
     </row>
-    <row r="71" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="F71"/>
       <c r="N71" s="25"/>
@@ -27312,7 +27486,7 @@
       <c r="EI71"/>
       <c r="EJ71"/>
     </row>
-    <row r="72" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="F72"/>
       <c r="N72" s="25"/>
@@ -27339,7 +27513,7 @@
       <c r="EI72"/>
       <c r="EJ72"/>
     </row>
-    <row r="73" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="F73"/>
       <c r="N73" s="25"/>
@@ -27366,7 +27540,7 @@
       <c r="EI73"/>
       <c r="EJ73"/>
     </row>
-    <row r="74" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="F74"/>
       <c r="N74" s="25"/>
@@ -27393,7 +27567,7 @@
       <c r="EI74"/>
       <c r="EJ74"/>
     </row>
-    <row r="75" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="F75"/>
       <c r="N75" s="25"/>
@@ -27420,7 +27594,7 @@
       <c r="EI75"/>
       <c r="EJ75"/>
     </row>
-    <row r="76" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="F76"/>
       <c r="N76" s="25"/>
@@ -27447,7 +27621,7 @@
       <c r="EI76"/>
       <c r="EJ76"/>
     </row>
-    <row r="77" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="F77"/>
       <c r="N77" s="25"/>
@@ -27474,7 +27648,7 @@
       <c r="EI77"/>
       <c r="EJ77"/>
     </row>
-    <row r="78" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="F78"/>
       <c r="N78" s="25"/>
@@ -27501,7 +27675,7 @@
       <c r="EI78"/>
       <c r="EJ78"/>
     </row>
-    <row r="79" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="F79"/>
       <c r="N79" s="25"/>
@@ -27528,7 +27702,7 @@
       <c r="EI79"/>
       <c r="EJ79"/>
     </row>
-    <row r="80" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:141" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="F80"/>
       <c r="N80" s="25"/>
@@ -27555,7 +27729,7 @@
       <c r="EI80"/>
       <c r="EJ80"/>
     </row>
-    <row r="81" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="F81"/>
       <c r="N81" s="25"/>
@@ -27582,7 +27756,7 @@
       <c r="EI81"/>
       <c r="EJ81"/>
     </row>
-    <row r="82" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="F82"/>
       <c r="N82" s="25"/>
@@ -27609,7 +27783,7 @@
       <c r="EI82"/>
       <c r="EJ82"/>
     </row>
-    <row r="83" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="F83"/>
       <c r="N83" s="25"/>
@@ -27636,7 +27810,7 @@
       <c r="EI83"/>
       <c r="EJ83"/>
     </row>
-    <row r="84" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="F84"/>
       <c r="N84" s="25"/>
@@ -27663,7 +27837,7 @@
       <c r="EI84"/>
       <c r="EJ84"/>
     </row>
-    <row r="85" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="F85"/>
       <c r="N85" s="25"/>
@@ -27690,7 +27864,7 @@
       <c r="EI85"/>
       <c r="EJ85"/>
     </row>
-    <row r="86" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="F86"/>
       <c r="N86" s="25"/>
@@ -27717,7 +27891,7 @@
       <c r="EI86"/>
       <c r="EJ86"/>
     </row>
-    <row r="87" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="F87"/>
       <c r="N87" s="25"/>
@@ -27744,7 +27918,7 @@
       <c r="EI87"/>
       <c r="EJ87"/>
     </row>
-    <row r="88" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="F88"/>
       <c r="N88" s="25"/>
@@ -27771,7 +27945,7 @@
       <c r="EI88"/>
       <c r="EJ88"/>
     </row>
-    <row r="89" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="F89"/>
       <c r="N89" s="25"/>
@@ -27798,7 +27972,7 @@
       <c r="EI89"/>
       <c r="EJ89"/>
     </row>
-    <row r="90" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="F90"/>
       <c r="N90" s="25"/>
@@ -27825,7 +27999,7 @@
       <c r="EI90"/>
       <c r="EJ90"/>
     </row>
-    <row r="91" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="F91"/>
       <c r="N91" s="25"/>
@@ -27852,7 +28026,7 @@
       <c r="EI91"/>
       <c r="EJ91"/>
     </row>
-    <row r="92" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="F92"/>
       <c r="N92" s="25"/>
@@ -27879,7 +28053,7 @@
       <c r="EI92"/>
       <c r="EJ92"/>
     </row>
-    <row r="93" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="F93"/>
       <c r="N93" s="25"/>
@@ -27906,7 +28080,7 @@
       <c r="EI93"/>
       <c r="EJ93"/>
     </row>
-    <row r="94" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="F94"/>
       <c r="N94" s="25"/>
@@ -27933,7 +28107,7 @@
       <c r="EI94"/>
       <c r="EJ94"/>
     </row>
-    <row r="95" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="F95"/>
       <c r="N95" s="25"/>
@@ -27960,7 +28134,7 @@
       <c r="EI95"/>
       <c r="EJ95"/>
     </row>
-    <row r="96" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="F96"/>
       <c r="N96" s="25"/>
@@ -27987,7 +28161,7 @@
       <c r="EI96"/>
       <c r="EJ96"/>
     </row>
-    <row r="97" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="F97"/>
       <c r="N97" s="25"/>
@@ -28014,7 +28188,7 @@
       <c r="EI97"/>
       <c r="EJ97"/>
     </row>
-    <row r="98" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="F98"/>
       <c r="N98" s="25"/>
@@ -28041,7 +28215,7 @@
       <c r="EI98"/>
       <c r="EJ98"/>
     </row>
-    <row r="99" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="F99"/>
       <c r="N99" s="25"/>
@@ -28068,7 +28242,7 @@
       <c r="EI99"/>
       <c r="EJ99"/>
     </row>
-    <row r="100" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="F100"/>
       <c r="N100" s="25"/>
@@ -28095,7 +28269,7 @@
       <c r="EI100"/>
       <c r="EJ100"/>
     </row>
-    <row r="101" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="F101"/>
       <c r="N101" s="25"/>
@@ -28122,7 +28296,7 @@
       <c r="EI101"/>
       <c r="EJ101"/>
     </row>
-    <row r="102" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="F102"/>
       <c r="N102" s="25"/>
@@ -28149,7 +28323,7 @@
       <c r="EI102"/>
       <c r="EJ102"/>
     </row>
-    <row r="103" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="F103"/>
       <c r="N103" s="25"/>
@@ -28176,7 +28350,7 @@
       <c r="EI103"/>
       <c r="EJ103"/>
     </row>
-    <row r="104" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="F104"/>
       <c r="N104" s="25"/>
@@ -28203,7 +28377,7 @@
       <c r="EI104"/>
       <c r="EJ104"/>
     </row>
-    <row r="105" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="F105"/>
       <c r="N105" s="25"/>
@@ -28230,7 +28404,7 @@
       <c r="EI105"/>
       <c r="EJ105"/>
     </row>
-    <row r="106" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="F106"/>
       <c r="N106" s="25"/>
@@ -28257,7 +28431,7 @@
       <c r="EI106"/>
       <c r="EJ106"/>
     </row>
-    <row r="107" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="F107"/>
       <c r="N107" s="25"/>
@@ -28284,7 +28458,7 @@
       <c r="EI107"/>
       <c r="EJ107"/>
     </row>
-    <row r="108" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="F108"/>
       <c r="N108" s="25"/>
@@ -28311,7 +28485,7 @@
       <c r="EI108"/>
       <c r="EJ108"/>
     </row>
-    <row r="109" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="F109"/>
       <c r="N109" s="25"/>
@@ -28338,7 +28512,7 @@
       <c r="EI109"/>
       <c r="EJ109"/>
     </row>
-    <row r="110" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="F110"/>
       <c r="N110" s="25"/>
@@ -28365,7 +28539,7 @@
       <c r="EI110"/>
       <c r="EJ110"/>
     </row>
-    <row r="111" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="F111"/>
       <c r="N111" s="25"/>
@@ -28392,7 +28566,7 @@
       <c r="EI111"/>
       <c r="EJ111"/>
     </row>
-    <row r="112" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="F112"/>
       <c r="N112" s="25"/>
@@ -28419,7 +28593,7 @@
       <c r="EI112"/>
       <c r="EJ112"/>
     </row>
-    <row r="113" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="F113"/>
       <c r="N113" s="25"/>
@@ -28446,7 +28620,7 @@
       <c r="EI113"/>
       <c r="EJ113"/>
     </row>
-    <row r="114" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="F114"/>
       <c r="N114" s="25"/>
@@ -28473,7 +28647,7 @@
       <c r="EI114"/>
       <c r="EJ114"/>
     </row>
-    <row r="115" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="F115"/>
       <c r="N115" s="25"/>
@@ -28500,7 +28674,7 @@
       <c r="EI115"/>
       <c r="EJ115"/>
     </row>
-    <row r="116" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="F116"/>
       <c r="N116" s="25"/>
@@ -28527,7 +28701,7 @@
       <c r="EI116"/>
       <c r="EJ116"/>
     </row>
-    <row r="117" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="F117"/>
       <c r="N117" s="25"/>
@@ -28554,7 +28728,7 @@
       <c r="EI117"/>
       <c r="EJ117"/>
     </row>
-    <row r="118" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="F118"/>
       <c r="N118" s="25"/>
@@ -28581,7 +28755,7 @@
       <c r="EI118"/>
       <c r="EJ118"/>
     </row>
-    <row r="119" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="F119"/>
       <c r="N119" s="25"/>
@@ -28608,7 +28782,7 @@
       <c r="EI119"/>
       <c r="EJ119"/>
     </row>
-    <row r="120" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="F120"/>
       <c r="N120" s="25"/>
@@ -28635,7 +28809,7 @@
       <c r="EI120"/>
       <c r="EJ120"/>
     </row>
-    <row r="121" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="F121"/>
       <c r="N121" s="25"/>
@@ -28662,7 +28836,7 @@
       <c r="EI121"/>
       <c r="EJ121"/>
     </row>
-    <row r="122" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="F122"/>
       <c r="N122" s="25"/>
@@ -28689,7 +28863,7 @@
       <c r="EI122"/>
       <c r="EJ122"/>
     </row>
-    <row r="123" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="F123"/>
       <c r="N123" s="25"/>
@@ -28716,7 +28890,7 @@
       <c r="EI123"/>
       <c r="EJ123"/>
     </row>
-    <row r="124" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="F124"/>
       <c r="N124" s="25"/>
@@ -28743,7 +28917,7 @@
       <c r="EI124"/>
       <c r="EJ124"/>
     </row>
-    <row r="125" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="F125"/>
       <c r="N125" s="25"/>
@@ -28770,7 +28944,7 @@
       <c r="EI125"/>
       <c r="EJ125"/>
     </row>
-    <row r="126" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="F126"/>
       <c r="N126" s="25"/>
@@ -28797,7 +28971,7 @@
       <c r="EI126"/>
       <c r="EJ126"/>
     </row>
-    <row r="127" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="F127"/>
       <c r="N127" s="25"/>
@@ -28824,7 +28998,7 @@
       <c r="EI127"/>
       <c r="EJ127"/>
     </row>
-    <row r="128" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="F128"/>
       <c r="N128" s="25"/>
@@ -28851,7 +29025,7 @@
       <c r="EI128"/>
       <c r="EJ128"/>
     </row>
-    <row r="129" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="F129"/>
       <c r="N129" s="25"/>
@@ -28878,7 +29052,7 @@
       <c r="EI129"/>
       <c r="EJ129"/>
     </row>
-    <row r="130" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="F130"/>
       <c r="N130" s="25"/>
@@ -28905,7 +29079,7 @@
       <c r="EI130"/>
       <c r="EJ130"/>
     </row>
-    <row r="131" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="F131"/>
       <c r="N131" s="25"/>
@@ -28932,7 +29106,7 @@
       <c r="EI131"/>
       <c r="EJ131"/>
     </row>
-    <row r="132" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="F132"/>
       <c r="N132" s="25"/>
@@ -28959,7 +29133,7 @@
       <c r="EI132"/>
       <c r="EJ132"/>
     </row>
-    <row r="133" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="F133"/>
       <c r="N133" s="25"/>
@@ -28986,7 +29160,7 @@
       <c r="EI133"/>
       <c r="EJ133"/>
     </row>
-    <row r="134" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="F134"/>
       <c r="N134" s="25"/>
@@ -29013,7 +29187,7 @@
       <c r="EI134"/>
       <c r="EJ134"/>
     </row>
-    <row r="135" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="F135"/>
       <c r="N135" s="25"/>
@@ -29040,7 +29214,7 @@
       <c r="EI135"/>
       <c r="EJ135"/>
     </row>
-    <row r="136" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="F136"/>
       <c r="N136" s="25"/>
@@ -29067,7 +29241,7 @@
       <c r="EI136"/>
       <c r="EJ136"/>
     </row>
-    <row r="137" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="F137"/>
       <c r="N137" s="25"/>
@@ -29094,7 +29268,7 @@
       <c r="EI137"/>
       <c r="EJ137"/>
     </row>
-    <row r="138" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="F138"/>
       <c r="N138" s="25"/>
@@ -29121,7 +29295,7 @@
       <c r="EI138"/>
       <c r="EJ138"/>
     </row>
-    <row r="139" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="F139"/>
       <c r="N139" s="25"/>
@@ -29148,7 +29322,7 @@
       <c r="EI139"/>
       <c r="EJ139"/>
     </row>
-    <row r="140" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="F140"/>
       <c r="N140" s="25"/>
@@ -29175,7 +29349,7 @@
       <c r="EI140"/>
       <c r="EJ140"/>
     </row>
-    <row r="141" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="F141"/>
       <c r="N141" s="25"/>
@@ -29202,7 +29376,7 @@
       <c r="EI141"/>
       <c r="EJ141"/>
     </row>
-    <row r="142" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="F142"/>
       <c r="N142" s="25"/>
@@ -29229,7 +29403,7 @@
       <c r="EI142"/>
       <c r="EJ142"/>
     </row>
-    <row r="143" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="F143"/>
       <c r="N143" s="25"/>
@@ -29256,7 +29430,7 @@
       <c r="EI143"/>
       <c r="EJ143"/>
     </row>
-    <row r="144" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="F144"/>
       <c r="N144" s="25"/>
@@ -29283,7 +29457,7 @@
       <c r="EI144"/>
       <c r="EJ144"/>
     </row>
-    <row r="145" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="F145"/>
       <c r="N145" s="25"/>
@@ -29310,7 +29484,7 @@
       <c r="EI145"/>
       <c r="EJ145"/>
     </row>
-    <row r="146" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="F146"/>
       <c r="N146" s="25"/>
@@ -29337,7 +29511,7 @@
       <c r="EI146"/>
       <c r="EJ146"/>
     </row>
-    <row r="147" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="F147"/>
       <c r="N147" s="25"/>
@@ -29364,7 +29538,7 @@
       <c r="EI147"/>
       <c r="EJ147"/>
     </row>
-    <row r="148" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="F148"/>
       <c r="N148" s="25"/>
@@ -29391,7 +29565,7 @@
       <c r="EI148"/>
       <c r="EJ148"/>
     </row>
-    <row r="149" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="F149"/>
       <c r="N149" s="25"/>
@@ -29418,7 +29592,7 @@
       <c r="EI149"/>
       <c r="EJ149"/>
     </row>
-    <row r="150" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="F150"/>
       <c r="N150" s="25"/>
@@ -29445,7 +29619,7 @@
       <c r="EI150"/>
       <c r="EJ150"/>
     </row>
-    <row r="151" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="F151"/>
       <c r="N151" s="25"/>
@@ -29472,7 +29646,7 @@
       <c r="EI151"/>
       <c r="EJ151"/>
     </row>
-    <row r="152" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="F152"/>
       <c r="N152" s="25"/>
@@ -29499,7 +29673,7 @@
       <c r="EI152"/>
       <c r="EJ152"/>
     </row>
-    <row r="153" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="F153"/>
       <c r="N153" s="25"/>
@@ -29526,7 +29700,7 @@
       <c r="EI153"/>
       <c r="EJ153"/>
     </row>
-    <row r="154" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="F154"/>
       <c r="N154" s="25"/>
@@ -29553,7 +29727,7 @@
       <c r="EI154"/>
       <c r="EJ154"/>
     </row>
-    <row r="155" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="F155"/>
       <c r="N155" s="25"/>
@@ -29580,7 +29754,7 @@
       <c r="EI155"/>
       <c r="EJ155"/>
     </row>
-    <row r="156" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="F156"/>
       <c r="N156" s="25"/>
@@ -29607,7 +29781,7 @@
       <c r="EI156"/>
       <c r="EJ156"/>
     </row>
-    <row r="157" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="F157"/>
       <c r="N157" s="25"/>
@@ -29634,7 +29808,7 @@
       <c r="EI157"/>
       <c r="EJ157"/>
     </row>
-    <row r="158" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="F158"/>
       <c r="N158" s="25"/>
@@ -29661,7 +29835,7 @@
       <c r="EI158"/>
       <c r="EJ158"/>
     </row>
-    <row r="159" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="F159"/>
       <c r="N159" s="25"/>
@@ -29688,7 +29862,7 @@
       <c r="EI159"/>
       <c r="EJ159"/>
     </row>
-    <row r="160" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="F160"/>
       <c r="N160" s="25"/>
@@ -29715,7 +29889,7 @@
       <c r="EI160"/>
       <c r="EJ160"/>
     </row>
-    <row r="161" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="F161"/>
       <c r="N161" s="25"/>
@@ -29742,7 +29916,7 @@
       <c r="EI161"/>
       <c r="EJ161"/>
     </row>
-    <row r="162" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="F162"/>
       <c r="N162" s="25"/>
@@ -29769,7 +29943,7 @@
       <c r="EI162"/>
       <c r="EJ162"/>
     </row>
-    <row r="163" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="F163"/>
       <c r="N163" s="25"/>
@@ -29796,7 +29970,7 @@
       <c r="EI163"/>
       <c r="EJ163"/>
     </row>
-    <row r="164" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="F164"/>
       <c r="N164" s="25"/>
@@ -29823,7 +29997,7 @@
       <c r="EI164"/>
       <c r="EJ164"/>
     </row>
-    <row r="165" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="F165"/>
       <c r="N165" s="25"/>
@@ -29850,7 +30024,7 @@
       <c r="EI165"/>
       <c r="EJ165"/>
     </row>
-    <row r="166" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="F166"/>
       <c r="N166" s="25"/>
@@ -29877,7 +30051,7 @@
       <c r="EI166"/>
       <c r="EJ166"/>
     </row>
-    <row r="167" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="F167"/>
       <c r="N167" s="25"/>
@@ -29904,7 +30078,7 @@
       <c r="EI167"/>
       <c r="EJ167"/>
     </row>
-    <row r="168" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="F168"/>
       <c r="N168" s="25"/>
@@ -29931,7 +30105,7 @@
       <c r="EI168"/>
       <c r="EJ168"/>
     </row>
-    <row r="169" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="F169"/>
       <c r="N169" s="25"/>
@@ -29958,7 +30132,7 @@
       <c r="EI169"/>
       <c r="EJ169"/>
     </row>
-    <row r="170" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="F170"/>
       <c r="N170" s="25"/>
@@ -29985,7 +30159,7 @@
       <c r="EI170"/>
       <c r="EJ170"/>
     </row>
-    <row r="171" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="F171"/>
       <c r="N171" s="25"/>
@@ -30012,7 +30186,7 @@
       <c r="EI171"/>
       <c r="EJ171"/>
     </row>
-    <row r="172" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="F172"/>
       <c r="N172" s="25"/>
@@ -30039,7 +30213,7 @@
       <c r="EI172"/>
       <c r="EJ172"/>
     </row>
-    <row r="173" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="F173"/>
       <c r="N173" s="25"/>
@@ -30066,7 +30240,7 @@
       <c r="EI173"/>
       <c r="EJ173"/>
     </row>
-    <row r="174" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="F174"/>
       <c r="N174" s="25"/>
@@ -30093,7 +30267,7 @@
       <c r="EI174"/>
       <c r="EJ174"/>
     </row>
-    <row r="175" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="F175"/>
       <c r="N175" s="25"/>
@@ -30120,7 +30294,7 @@
       <c r="EI175"/>
       <c r="EJ175"/>
     </row>
-    <row r="176" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="F176"/>
       <c r="N176" s="25"/>
@@ -30135,7 +30309,7 @@
       <c r="EI176"/>
       <c r="EJ176"/>
     </row>
-    <row r="177" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="F177"/>
       <c r="N177" s="25"/>
@@ -30150,7 +30324,7 @@
       <c r="EI177"/>
       <c r="EJ177"/>
     </row>
-    <row r="178" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="F178"/>
       <c r="N178" s="25"/>
@@ -30165,7 +30339,7 @@
       <c r="EI178"/>
       <c r="EJ178"/>
     </row>
-    <row r="179" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="F179"/>
       <c r="N179" s="25"/>
@@ -30180,7 +30354,7 @@
       <c r="EI179"/>
       <c r="EJ179"/>
     </row>
-    <row r="180" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="F180"/>
       <c r="N180" s="25"/>
@@ -30195,7 +30369,7 @@
       <c r="EI180"/>
       <c r="EJ180"/>
     </row>
-    <row r="181" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="F181"/>
       <c r="N181" s="25"/>
@@ -30210,7 +30384,7 @@
       <c r="EI181"/>
       <c r="EJ181"/>
     </row>
-    <row r="182" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="F182"/>
       <c r="N182" s="25"/>
@@ -30225,7 +30399,7 @@
       <c r="EI182"/>
       <c r="EJ182"/>
     </row>
-    <row r="183" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:140" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="F183"/>
       <c r="N183" s="25"/>
@@ -30240,31 +30414,31 @@
       <c r="EI183"/>
       <c r="EJ183"/>
     </row>
-    <row r="184" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N185" s="3"/>
     </row>
-    <row r="186" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N186" s="3"/>
     </row>
-    <row r="187" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N187" s="3"/>
     </row>
-    <row r="188" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N188" s="3"/>
     </row>
-    <row r="189" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N189" s="3"/>
     </row>
-    <row r="190" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N190" s="3"/>
     </row>
-    <row r="191" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N191" s="3"/>
     </row>
-    <row r="192" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:140" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N192" s="3"/>
     </row>
   </sheetData>
